--- a/demo/tablas_excel/CR/revocando_uno_a_uno/100_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando_uno_a_uno/100_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.2688235294117647</v>
       </c>
       <c r="F3" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
       <c r="G3" t="n">
         <v>369.3117647058824</v>
@@ -556,7 +556,7 @@
         <v>0.003960590171906701</v>
       </c>
       <c r="F4" t="n">
-        <v>5.476840544779551</v>
+        <v>0.05476840544779546</v>
       </c>
       <c r="G4" t="n">
         <v>8.053413994125991</v>
@@ -587,7 +587,7 @@
         <v>0.26</v>
       </c>
       <c r="F5" t="n">
-        <v>300.76</v>
+        <v>3.0076</v>
       </c>
       <c r="G5" t="n">
         <v>358.73</v>
@@ -618,7 +618,7 @@
         <v>0.2688235294117647</v>
       </c>
       <c r="F6" t="n">
-        <v>307.02</v>
+        <v>3.0702</v>
       </c>
       <c r="G6" t="n">
         <v>366.24</v>
@@ -649,7 +649,7 @@
         <v>0.27</v>
       </c>
       <c r="F7" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
       <c r="G7" t="n">
         <v>369.3117647058824</v>
@@ -680,7 +680,7 @@
         <v>0.27</v>
       </c>
       <c r="F8" t="n">
-        <v>310.19</v>
+        <v>3.1019</v>
       </c>
       <c r="G8" t="n">
         <v>369.66</v>
@@ -711,7 +711,7 @@
         <v>0.28</v>
       </c>
       <c r="F9" t="n">
-        <v>323.58</v>
+        <v>3.2358</v>
       </c>
       <c r="G9" t="n">
         <v>402.24</v>
